--- a/3. Resultados/03. resultados DIC 02 al DIC 15/Marinela Olaya.xlsx
+++ b/3. Resultados/03. resultados DIC 02 al DIC 15/Marinela Olaya.xlsx
@@ -1,458 +1,480 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\3. Resultados\03. resultados DIC 02 al DIC 15\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE612CB-79BB-4A24-A958-1EC47A672609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
-  <si>
-    <t xml:space="preserve">Identificador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de Pago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicio/Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prestador/Vendedor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">val_prod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part_profesional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024 17:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adriana junca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shampoo Dirigido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marinela Olaya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024 15:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Paez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masaje Relajante Espalda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024 11:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Carolina Garcia Rueda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024 11:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juana Orduz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shampoo Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 17:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandra Reyeros Ivonne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Pedicure Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 15:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajuste de Producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Semipermanente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 14:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Sanchez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scalp-Ego energizing Shampoo 300 ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scalp-Ego Energizing Lotion 10 ml - Ampolleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 14:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvia Juliana Sanchez Gamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceremonia capilar cabello extra largo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 13:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paola Osorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceremonia capilar cabello medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 12:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Perlaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definición y secado risos corto ( Ceremonia Express-Definición y Difusor)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 12:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy Gamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 10:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natalia Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Express capilar cabello largo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 10:45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consuelo Acevedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scalp-Ego Shampoo calming 300ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detox Capilar( Desintoxicacion de fibra capilar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 17:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vilma Lizaraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 13:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eva aranguren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Express capilar cabello extra largo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 12:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amparo Gonzalez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 12:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonor joha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceremonia capilar cabello largo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 10:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandra Rodriguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reposición de aminoacidos cabello largo   - (No Incluye Blower y Plancha)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 10:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricia Mattos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Propina desde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 18:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Fernanda Botero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Express capilar cabello medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 17:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danys Rodriguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 16:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olga Delgadillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Tradicional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 16:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shirley Comfar *Francy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 14:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara Prieto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manicure  Tradicional Express</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 10:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katerine Medellin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2024 18:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Daniela Moreno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2024 14:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandra Quintana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11/12/2024 10:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana Buitrago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 19:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alisson Mariana Villa Soto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 18:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sara Rincón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 16:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Victoria Vega</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 15:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 15:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 14:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 11:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stella Sierra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cure-Ego Silk oil conditioner 300ml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 10:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Giraldo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09/12/2024 12:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 18:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brigette Bing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 17:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Maria Moreno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 16:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Fernando Lopez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 13:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marjorie Forte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 12:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yeseline Diaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 10:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michelle Pérez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spa Manicure Gel Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 07:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambio de Esmalte Gel Evolution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2024 18:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ximena Peñuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2024 12:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luz Helena Clavijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Servicio de Plancha (desde)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blower  Cabello medio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">06/12/2024 11:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilda Abreo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2024 17:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Feijoo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2024 14:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Pedraza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05/12/2024 09:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024 18:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monica Lombana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024 16:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paola Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2024 17:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2024 14:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priscila Hernandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2024 11:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">03/12/2024 08:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clara Aya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2024 18:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentina Muñuz joha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masaje capilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">02/12/2024 17:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luz Stella Gil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fondo - Ahorro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17/12/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descuento - Anticipo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="148">
+  <si>
+    <t>Identificador</t>
+  </si>
+  <si>
+    <t>Fecha de Pago</t>
+  </si>
+  <si>
+    <t>Nombre cliente</t>
+  </si>
+  <si>
+    <t>Servicio/Producto</t>
+  </si>
+  <si>
+    <t>Prestador/Vendedor</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>val_prod</t>
+  </si>
+  <si>
+    <t>Part_profesional</t>
+  </si>
+  <si>
+    <t>15/12/2024 17:49</t>
+  </si>
+  <si>
+    <t>adriana junca</t>
+  </si>
+  <si>
+    <t>Shampoo Dirigido</t>
+  </si>
+  <si>
+    <t>Marinela Olaya</t>
+  </si>
+  <si>
+    <t>15/12/2024 15:47</t>
+  </si>
+  <si>
+    <t>Fernando Paez</t>
+  </si>
+  <si>
+    <t>Masaje Relajante Espalda</t>
+  </si>
+  <si>
+    <t>15/12/2024 11:16</t>
+  </si>
+  <si>
+    <t>Maria Carolina Garcia Rueda</t>
+  </si>
+  <si>
+    <t>15/12/2024 11:10</t>
+  </si>
+  <si>
+    <t>Juana Orduz</t>
+  </si>
+  <si>
+    <t>Shampoo Tradicional</t>
+  </si>
+  <si>
+    <t>14/12/2024 17:43</t>
+  </si>
+  <si>
+    <t>Alexandra Reyeros Ivonne</t>
+  </si>
+  <si>
+    <t>Spa Pedicure Tradicional</t>
+  </si>
+  <si>
+    <t>14/12/2024 15:54</t>
+  </si>
+  <si>
+    <t>Ajuste de Producto</t>
+  </si>
+  <si>
+    <t>Spa Manicure Semipermanente</t>
+  </si>
+  <si>
+    <t>14/12/2024 14:56</t>
+  </si>
+  <si>
+    <t>Diego Sanchez</t>
+  </si>
+  <si>
+    <t>Scalp-Ego energizing Shampoo 300 ml</t>
+  </si>
+  <si>
+    <t>Scalp-Ego Energizing Lotion 10 ml - Ampolleta</t>
+  </si>
+  <si>
+    <t>14/12/2024 14:32</t>
+  </si>
+  <si>
+    <t>Silvia Juliana Sanchez Gamba</t>
+  </si>
+  <si>
+    <t>Ceremonia capilar cabello extra largo</t>
+  </si>
+  <si>
+    <t>14/12/2024 13:10</t>
+  </si>
+  <si>
+    <t>Paola Osorio</t>
+  </si>
+  <si>
+    <t>Ceremonia capilar cabello medio</t>
+  </si>
+  <si>
+    <t>14/12/2024 12:54</t>
+  </si>
+  <si>
+    <t>Liliana Perlaza</t>
+  </si>
+  <si>
+    <t>Definición y secado risos corto ( Ceremonia Express-Definición y Difusor)</t>
+  </si>
+  <si>
+    <t>14/12/2024 12:19</t>
+  </si>
+  <si>
+    <t>Nancy Gamba</t>
+  </si>
+  <si>
+    <t>14/12/2024 10:59</t>
+  </si>
+  <si>
+    <t>Natalia Montenegro</t>
+  </si>
+  <si>
+    <t>Express capilar cabello largo</t>
+  </si>
+  <si>
+    <t>14/12/2024 10:45</t>
+  </si>
+  <si>
+    <t>Consuelo Acevedo</t>
+  </si>
+  <si>
+    <t>Scalp-Ego Shampoo calming 300ml</t>
+  </si>
+  <si>
+    <t>Detox Capilar( Desintoxicacion de fibra capilar)</t>
+  </si>
+  <si>
+    <t>13/12/2024 17:22</t>
+  </si>
+  <si>
+    <t>Vilma Lizaraso</t>
+  </si>
+  <si>
+    <t>13/12/2024 13:24</t>
+  </si>
+  <si>
+    <t>eva aranguren</t>
+  </si>
+  <si>
+    <t>Express capilar cabello extra largo</t>
+  </si>
+  <si>
+    <t>13/12/2024 12:27</t>
+  </si>
+  <si>
+    <t>Amparo Gonzalez</t>
+  </si>
+  <si>
+    <t>13/12/2024 12:16</t>
+  </si>
+  <si>
+    <t>Leonor joha</t>
+  </si>
+  <si>
+    <t>Ceremonia capilar cabello largo</t>
+  </si>
+  <si>
+    <t>13/12/2024 10:30</t>
+  </si>
+  <si>
+    <t>Alexandra Rodriguez</t>
+  </si>
+  <si>
+    <t>Reposición de aminoacidos cabello largo   - (No Incluye Blower y Plancha)</t>
+  </si>
+  <si>
+    <t>13/12/2024 10:25</t>
+  </si>
+  <si>
+    <t>Patricia Mattos</t>
+  </si>
+  <si>
+    <t>Propina desde</t>
+  </si>
+  <si>
+    <t>12/12/2024 18:32</t>
+  </si>
+  <si>
+    <t>Claudia Fernanda Botero</t>
+  </si>
+  <si>
+    <t>Express capilar cabello medio</t>
+  </si>
+  <si>
+    <t>12/12/2024 17:52</t>
+  </si>
+  <si>
+    <t>Danys Rodriguez</t>
+  </si>
+  <si>
+    <t>12/12/2024 16:03</t>
+  </si>
+  <si>
+    <t>Olga Delgadillo</t>
+  </si>
+  <si>
+    <t>Spa Manicure Tradicional</t>
+  </si>
+  <si>
+    <t>12/12/2024 16:02</t>
+  </si>
+  <si>
+    <t>Shirley Comfar *Francy</t>
+  </si>
+  <si>
+    <t>12/12/2024 14:47</t>
+  </si>
+  <si>
+    <t>Clara Prieto</t>
+  </si>
+  <si>
+    <t>Manicure  Tradicional Express</t>
+  </si>
+  <si>
+    <t>12/12/2024 10:52</t>
+  </si>
+  <si>
+    <t>Katerine Medellin</t>
+  </si>
+  <si>
+    <t>11/12/2024 18:00</t>
+  </si>
+  <si>
+    <t>María Daniela Moreno</t>
+  </si>
+  <si>
+    <t>11/12/2024 14:48</t>
+  </si>
+  <si>
+    <t>Alejandra Quintana</t>
+  </si>
+  <si>
+    <t>11/12/2024 10:26</t>
+  </si>
+  <si>
+    <t>Adriana Buitrago</t>
+  </si>
+  <si>
+    <t>10/12/2024 19:20</t>
+  </si>
+  <si>
+    <t>Alisson Mariana Villa Soto</t>
+  </si>
+  <si>
+    <t>10/12/2024 18:24</t>
+  </si>
+  <si>
+    <t>Sara Rincón</t>
+  </si>
+  <si>
+    <t>10/12/2024 16:00</t>
+  </si>
+  <si>
+    <t>Ana Victoria Vega</t>
+  </si>
+  <si>
+    <t>10/12/2024 15:29</t>
+  </si>
+  <si>
+    <t>10/12/2024 15:22</t>
+  </si>
+  <si>
+    <t>10/12/2024 14:39</t>
+  </si>
+  <si>
+    <t>10/12/2024 11:40</t>
+  </si>
+  <si>
+    <t>Stella Sierra</t>
+  </si>
+  <si>
+    <t>Cure-Ego Silk oil conditioner 300ml</t>
+  </si>
+  <si>
+    <t>10/12/2024 10:50</t>
+  </si>
+  <si>
+    <t>Sandra Giraldo</t>
+  </si>
+  <si>
+    <t>09/12/2024 12:25</t>
+  </si>
+  <si>
+    <t>07/12/2024 18:23</t>
+  </si>
+  <si>
+    <t>Brigette Bing</t>
+  </si>
+  <si>
+    <t>07/12/2024 17:57</t>
+  </si>
+  <si>
+    <t>Ana Maria Moreno</t>
+  </si>
+  <si>
+    <t>07/12/2024 16:46</t>
+  </si>
+  <si>
+    <t>Juan Fernando Lopez</t>
+  </si>
+  <si>
+    <t>07/12/2024 13:03</t>
+  </si>
+  <si>
+    <t>Marjorie Forte</t>
+  </si>
+  <si>
+    <t>07/12/2024 12:35</t>
+  </si>
+  <si>
+    <t>Yeseline Diaz</t>
+  </si>
+  <si>
+    <t>07/12/2024 10:40</t>
+  </si>
+  <si>
+    <t>Michelle Pérez</t>
+  </si>
+  <si>
+    <t>Spa Manicure Gel Evolution</t>
+  </si>
+  <si>
+    <t>07/12/2024 07:34</t>
+  </si>
+  <si>
+    <t>Cambio de Esmalte Gel Evolution</t>
+  </si>
+  <si>
+    <t>06/12/2024 18:13</t>
+  </si>
+  <si>
+    <t>Ximena Peñuela</t>
+  </si>
+  <si>
+    <t>06/12/2024 12:01</t>
+  </si>
+  <si>
+    <t>Luz Helena Clavijo</t>
+  </si>
+  <si>
+    <t>Servicio de Plancha (desde)</t>
+  </si>
+  <si>
+    <t>Blower  Cabello medio</t>
+  </si>
+  <si>
+    <t>06/12/2024 11:55</t>
+  </si>
+  <si>
+    <t>Hilda Abreo</t>
+  </si>
+  <si>
+    <t>05/12/2024 17:35</t>
+  </si>
+  <si>
+    <t>Gabriela Feijoo</t>
+  </si>
+  <si>
+    <t>05/12/2024 14:26</t>
+  </si>
+  <si>
+    <t>Carlos Pedraza</t>
+  </si>
+  <si>
+    <t>05/12/2024 09:46</t>
+  </si>
+  <si>
+    <t>04/12/2024 18:53</t>
+  </si>
+  <si>
+    <t>Monica Lombana</t>
+  </si>
+  <si>
+    <t>04/12/2024 16:47</t>
+  </si>
+  <si>
+    <t>Paola Castro</t>
+  </si>
+  <si>
+    <t>03/12/2024 17:20</t>
+  </si>
+  <si>
+    <t>03/12/2024 14:26</t>
+  </si>
+  <si>
+    <t>Priscila Hernandez</t>
+  </si>
+  <si>
+    <t>03/12/2024 11:37</t>
+  </si>
+  <si>
+    <t>03/12/2024 08:59</t>
+  </si>
+  <si>
+    <t>Clara Aya</t>
+  </si>
+  <si>
+    <t>02/12/2024 18:17</t>
+  </si>
+  <si>
+    <t>Valentina Muñuz joha</t>
+  </si>
+  <si>
+    <t>Masaje capilar</t>
+  </si>
+  <si>
+    <t>02/12/2024 17:58</t>
+  </si>
+  <si>
+    <t>Luz Stella Gil</t>
+  </si>
+  <si>
+    <t>15/12/2024</t>
+  </si>
+  <si>
+    <t>Fondo - Ahorro</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>Descuento - Anticipo</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
   </si>
 </sst>
 </file>
@@ -460,9 +482,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="&quot;$&quot; #,##0;[Red]&quot;$&quot; -#,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -471,15 +493,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <b/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -507,19 +531,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -801,24 +835,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="28.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="75.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="16.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="75.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -844,8 +880,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>35992490</v>
       </c>
       <c r="B2" t="s">
@@ -860,18 +896,18 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>22000</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2" t="n">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>35992490</v>
       </c>
       <c r="B3" t="s">
@@ -886,18 +922,18 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>22000</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>35990728</v>
       </c>
       <c r="B4" t="s">
@@ -912,18 +948,18 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>75000</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
         <v>30000</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>35985592</v>
       </c>
       <c r="B5" t="s">
@@ -938,18 +974,18 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>22000</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>35986161</v>
       </c>
       <c r="B6" t="s">
@@ -964,18 +1000,18 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>15000</v>
       </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2" t="n">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>35980747</v>
       </c>
       <c r="B7" t="s">
@@ -990,18 +1026,18 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>34000</v>
       </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
         <v>15300</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>35969263</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1016,18 +1052,18 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="4">
         <v>60000</v>
       </c>
-      <c r="G8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="n">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>-15600</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>35967101</v>
       </c>
       <c r="B9" t="s">
@@ -1042,18 +1078,18 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>122000</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
         <v>9760</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>35967101</v>
       </c>
       <c r="B10" t="s">
@@ -1068,18 +1104,18 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>136000</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2" t="n">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
         <v>10880</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>35968621</v>
       </c>
       <c r="B11" t="s">
@@ -1094,18 +1130,18 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>115000</v>
       </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>35956666</v>
       </c>
       <c r="B12" t="s">
@@ -1120,18 +1156,18 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>95000</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2" t="n">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>38000</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>35956259</v>
       </c>
       <c r="B13" t="s">
@@ -1146,18 +1182,18 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>90000</v>
       </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2" t="n">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
         <v>36000</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>35973557</v>
       </c>
       <c r="B14" t="s">
@@ -1172,18 +1208,18 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>115000</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="n">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>35946472</v>
       </c>
       <c r="B15" t="s">
@@ -1198,18 +1234,18 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>55000</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2" t="n">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>22000</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>35945432</v>
       </c>
       <c r="B16" t="s">
@@ -1224,18 +1260,18 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>122000</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2" t="n">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
         <v>9760</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>35945432</v>
       </c>
       <c r="B17" t="s">
@@ -1250,18 +1286,18 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>45000</v>
       </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2" t="n">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>35935166</v>
       </c>
       <c r="B18" t="s">
@@ -1276,18 +1312,18 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>55000</v>
       </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2" t="n">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <v>22000</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>35908072</v>
       </c>
       <c r="B19" t="s">
@@ -1302,18 +1338,18 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>60000</v>
       </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2" t="n">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
         <v>24000</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>35899642</v>
       </c>
       <c r="B20" t="s">
@@ -1328,18 +1364,18 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>45000</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2" t="n">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>35899642</v>
       </c>
       <c r="B21" t="s">
@@ -1354,18 +1390,18 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>95000</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2" t="n">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
         <v>38000</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>35900770</v>
       </c>
       <c r="B22" t="s">
@@ -1380,18 +1416,18 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>105000</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2" t="n">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
         <v>42000</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>35896985</v>
       </c>
       <c r="B23" t="s">
@@ -1406,18 +1442,18 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>196500</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2" t="n">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
         <v>78600</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>35890627</v>
       </c>
       <c r="B24" t="s">
@@ -1432,18 +1468,18 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>22000</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2" t="n">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>35890627</v>
       </c>
       <c r="B25" t="s">
@@ -1458,18 +1494,18 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>5800</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2" t="n">
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
         <v>5591.2</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>35877760</v>
       </c>
       <c r="B26" t="s">
@@ -1484,18 +1520,18 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>50000</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2" t="n">
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>35875163</v>
       </c>
       <c r="B27" t="s">
@@ -1510,18 +1546,18 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>50000</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="n">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>35867971</v>
       </c>
       <c r="B28" t="s">
@@ -1536,18 +1572,18 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>2000</v>
       </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2" t="n">
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
         <v>1928</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>35867971</v>
       </c>
       <c r="B29" t="s">
@@ -1562,18 +1598,18 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>28000</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2" t="n">
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
         <v>12600</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>35871132</v>
       </c>
       <c r="B30" t="s">
@@ -1588,18 +1624,18 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>22000</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2" t="n">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>35857822</v>
       </c>
       <c r="B31" t="s">
@@ -1614,18 +1650,18 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>20000</v>
       </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2" t="n">
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>35845550</v>
       </c>
       <c r="B32" t="s">
@@ -1640,18 +1676,18 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>15000</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2" t="n">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>35826717</v>
       </c>
       <c r="B33" t="s">
@@ -1666,18 +1702,18 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>22000</v>
       </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2" t="n">
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>35820951</v>
       </c>
       <c r="B34" t="s">
@@ -1692,18 +1728,18 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>45000</v>
       </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2" t="n">
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>35820951</v>
       </c>
       <c r="B35" t="s">
@@ -1718,18 +1754,18 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>105000</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2" t="n">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
         <v>42000</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>35795675</v>
       </c>
       <c r="B36" t="s">
@@ -1744,18 +1780,18 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>22000</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2" t="n">
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>35783756</v>
       </c>
       <c r="B37" t="s">
@@ -1770,18 +1806,18 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>35780749</v>
       </c>
       <c r="B38" t="s">
@@ -1796,18 +1832,18 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>115000</v>
       </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2" t="n">
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>35780749</v>
       </c>
       <c r="B39" t="s">
@@ -1822,18 +1858,18 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>45000</v>
       </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2" t="n">
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>35779840</v>
       </c>
       <c r="B40" t="s">
@@ -1848,18 +1884,18 @@
       <c r="E40" t="s">
         <v>11</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>60000</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2" t="n">
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
         <v>24000</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>35769960</v>
       </c>
       <c r="B41" t="s">
@@ -1874,18 +1910,18 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>22000</v>
       </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2" t="n">
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>35767734</v>
       </c>
       <c r="B42" t="s">
@@ -1900,18 +1936,18 @@
       <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>34000</v>
       </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2" t="n">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
         <v>2720</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>35767734</v>
       </c>
       <c r="B43" t="s">
@@ -1926,18 +1962,18 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>22000</v>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2" t="n">
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>35764646</v>
       </c>
       <c r="B44" t="s">
@@ -1952,18 +1988,18 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>5000</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2" t="n">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
         <v>35764646</v>
       </c>
       <c r="B45" t="s">
@@ -1978,18 +2014,18 @@
       <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>22000</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2" t="n">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
         <v>35753709</v>
       </c>
       <c r="B46" t="s">
@@ -2004,18 +2040,18 @@
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>142000</v>
       </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2" t="n">
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
         <v>11360</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
         <v>35753709</v>
       </c>
       <c r="B47" t="s">
@@ -2030,18 +2066,18 @@
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>55000</v>
       </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2" t="n">
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
         <v>22000</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
         <v>35751106</v>
       </c>
       <c r="B48" t="s">
@@ -2056,18 +2092,18 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>15000</v>
       </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2" t="n">
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>35713299</v>
       </c>
       <c r="B49" t="s">
@@ -2082,18 +2118,18 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>20000</v>
       </c>
-      <c r="G49" t="n">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2" t="n">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>35689160</v>
       </c>
       <c r="B50" t="s">
@@ -2108,18 +2144,18 @@
       <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>22000</v>
       </c>
-      <c r="G50" t="n">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2" t="n">
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>35688015</v>
       </c>
       <c r="B51" t="s">
@@ -2134,18 +2170,18 @@
       <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>142000</v>
       </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2" t="n">
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2">
         <v>11360</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>35688015</v>
       </c>
       <c r="B52" t="s">
@@ -2160,18 +2196,18 @@
       <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>122000</v>
       </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2" t="n">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <v>9760</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>35688119</v>
       </c>
       <c r="B53" t="s">
@@ -2186,18 +2222,18 @@
       <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>45000</v>
       </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2" t="n">
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>35688119</v>
       </c>
       <c r="B54" t="s">
@@ -2212,18 +2248,18 @@
       <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>115000</v>
       </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2" t="n">
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>35673641</v>
       </c>
       <c r="B55" t="s">
@@ -2238,18 +2274,18 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>60000</v>
       </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2" t="n">
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2">
         <v>24000</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56">
         <v>35666637</v>
       </c>
       <c r="B56" t="s">
@@ -2264,18 +2300,18 @@
       <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>22000</v>
       </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2" t="n">
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>35656476</v>
       </c>
       <c r="B57" t="s">
@@ -2290,18 +2326,18 @@
       <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>32000</v>
       </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2" t="n">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
         <v>14400</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>35652036</v>
       </c>
       <c r="B58" t="s">
@@ -2316,18 +2352,18 @@
       <c r="E58" t="s">
         <v>11</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>18000</v>
       </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2" t="n">
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
         <v>8100</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>35652036</v>
       </c>
       <c r="B59" t="s">
@@ -2342,18 +2378,18 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>22000</v>
       </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2" t="n">
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>35652036</v>
       </c>
       <c r="B60" t="s">
@@ -2368,18 +2404,18 @@
       <c r="E60" t="s">
         <v>11</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>22000</v>
       </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2" t="n">
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>35642190</v>
       </c>
       <c r="B61" t="s">
@@ -2394,18 +2430,18 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="F61" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" t="n">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>35642190</v>
       </c>
       <c r="B62" t="s">
@@ -2420,18 +2456,18 @@
       <c r="E62" t="s">
         <v>11</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>45000</v>
       </c>
-      <c r="G62" t="n">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2" t="n">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>35608137</v>
       </c>
       <c r="B63" t="s">
@@ -2446,18 +2482,18 @@
       <c r="E63" t="s">
         <v>11</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>20000</v>
       </c>
-      <c r="G63" t="n">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2" t="n">
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
         <v>11000</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>35608137</v>
       </c>
       <c r="B64" t="s">
@@ -2472,18 +2508,18 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>35000</v>
       </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2" t="n">
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
         <v>19250</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65">
         <v>35608137</v>
       </c>
       <c r="B65" t="s">
@@ -2498,18 +2534,18 @@
       <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>22000</v>
       </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2" t="n">
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66">
         <v>35606922</v>
       </c>
       <c r="B66" t="s">
@@ -2524,18 +2560,18 @@
       <c r="E66" t="s">
         <v>11</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>22000</v>
       </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2" t="n">
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67">
         <v>35586204</v>
       </c>
       <c r="B67" t="s">
@@ -2550,18 +2586,18 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>115000</v>
       </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2" t="n">
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2">
         <v>46000</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68">
         <v>35586204</v>
       </c>
       <c r="B68" t="s">
@@ -2576,18 +2612,18 @@
       <c r="E68" t="s">
         <v>11</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>45000</v>
       </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2" t="n">
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69">
         <v>35568200</v>
       </c>
       <c r="B69" t="s">
@@ -2602,18 +2638,18 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>45000</v>
       </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2" t="n">
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2">
         <v>18000</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70">
         <v>35568200</v>
       </c>
       <c r="B70" t="s">
@@ -2628,18 +2664,18 @@
       <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>22000</v>
       </c>
-      <c r="G70" t="n">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2" t="n">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71">
         <v>35553623</v>
       </c>
       <c r="B71" t="s">
@@ -2654,18 +2690,18 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>28000</v>
       </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2" t="n">
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2">
         <v>12600</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72">
         <v>35538876</v>
       </c>
       <c r="B72" t="s">
@@ -2680,18 +2716,18 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>20000</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2" t="n">
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2">
         <v>9000</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73">
         <v>35530195</v>
       </c>
       <c r="B73" t="s">
@@ -2706,18 +2742,18 @@
       <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>15000</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2" t="n">
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74">
         <v>35493217</v>
       </c>
       <c r="B74" t="s">
@@ -2732,18 +2768,18 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>22000</v>
       </c>
-      <c r="G74" t="n">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2" t="n">
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75">
         <v>35475047</v>
       </c>
       <c r="B75" t="s">
@@ -2758,18 +2794,18 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>22000</v>
       </c>
-      <c r="G75" t="n">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2" t="n">
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76">
         <v>35464742</v>
       </c>
       <c r="B76" t="s">
@@ -2784,18 +2820,18 @@
       <c r="E76" t="s">
         <v>11</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>15000</v>
       </c>
-      <c r="G76" t="n">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2" t="n">
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77">
         <v>35457536</v>
       </c>
       <c r="B77" t="s">
@@ -2810,18 +2846,18 @@
       <c r="E77" t="s">
         <v>11</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>22000</v>
       </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2" t="n">
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2">
         <v>8800</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78">
         <v>35451892</v>
       </c>
       <c r="B78" t="s">
@@ -2836,18 +2872,18 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>25000</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2" t="n">
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2">
         <v>10000</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79">
         <v>35445806</v>
       </c>
       <c r="B79" t="s">
@@ -2862,18 +2898,18 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>34000</v>
       </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2" t="n">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2">
         <v>2720</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80">
         <v>35445806</v>
       </c>
       <c r="B80" t="s">
@@ -2888,17 +2924,17 @@
       <c r="E80" t="s">
         <v>11</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>15000</v>
       </c>
-      <c r="G80" t="n">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2" t="n">
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2">
         <v>6000</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>143</v>
@@ -2910,17 +2946,17 @@
       <c r="E81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3" t="n">
+      <c r="F81" s="4">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-50000</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>145</v>
@@ -2932,18 +2968,43 @@
       <c r="E82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3" t="n">
+      <c r="F82" s="4">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3">
         <v>-50000</v>
       </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" s="4">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H84" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/3. Resultados/03. resultados DIC 02 al DIC 15/Marinela Olaya.xlsx
+++ b/3. Resultados/03. resultados DIC 02 al DIC 15/Marinela Olaya.xlsx
@@ -1,480 +1,461 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windows\Documents\GitHub\Problem_Set_1\ForeverChic\3. Resultados\03. resultados DIC 02 al DIC 15\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE612CB-79BB-4A24-A958-1EC47A672609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="148">
-  <si>
-    <t>Identificador</t>
-  </si>
-  <si>
-    <t>Fecha de Pago</t>
-  </si>
-  <si>
-    <t>Nombre cliente</t>
-  </si>
-  <si>
-    <t>Servicio/Producto</t>
-  </si>
-  <si>
-    <t>Prestador/Vendedor</t>
-  </si>
-  <si>
-    <t>Precio</t>
-  </si>
-  <si>
-    <t>val_prod</t>
-  </si>
-  <si>
-    <t>Part_profesional</t>
-  </si>
-  <si>
-    <t>15/12/2024 17:49</t>
-  </si>
-  <si>
-    <t>adriana junca</t>
-  </si>
-  <si>
-    <t>Shampoo Dirigido</t>
-  </si>
-  <si>
-    <t>Marinela Olaya</t>
-  </si>
-  <si>
-    <t>15/12/2024 15:47</t>
-  </si>
-  <si>
-    <t>Fernando Paez</t>
-  </si>
-  <si>
-    <t>Masaje Relajante Espalda</t>
-  </si>
-  <si>
-    <t>15/12/2024 11:16</t>
-  </si>
-  <si>
-    <t>Maria Carolina Garcia Rueda</t>
-  </si>
-  <si>
-    <t>15/12/2024 11:10</t>
-  </si>
-  <si>
-    <t>Juana Orduz</t>
-  </si>
-  <si>
-    <t>Shampoo Tradicional</t>
-  </si>
-  <si>
-    <t>14/12/2024 17:43</t>
-  </si>
-  <si>
-    <t>Alexandra Reyeros Ivonne</t>
-  </si>
-  <si>
-    <t>Spa Pedicure Tradicional</t>
-  </si>
-  <si>
-    <t>14/12/2024 15:54</t>
-  </si>
-  <si>
-    <t>Ajuste de Producto</t>
-  </si>
-  <si>
-    <t>Spa Manicure Semipermanente</t>
-  </si>
-  <si>
-    <t>14/12/2024 14:56</t>
-  </si>
-  <si>
-    <t>Diego Sanchez</t>
-  </si>
-  <si>
-    <t>Scalp-Ego energizing Shampoo 300 ml</t>
-  </si>
-  <si>
-    <t>Scalp-Ego Energizing Lotion 10 ml - Ampolleta</t>
-  </si>
-  <si>
-    <t>14/12/2024 14:32</t>
-  </si>
-  <si>
-    <t>Silvia Juliana Sanchez Gamba</t>
-  </si>
-  <si>
-    <t>Ceremonia capilar cabello extra largo</t>
-  </si>
-  <si>
-    <t>14/12/2024 13:10</t>
-  </si>
-  <si>
-    <t>Paola Osorio</t>
-  </si>
-  <si>
-    <t>Ceremonia capilar cabello medio</t>
-  </si>
-  <si>
-    <t>14/12/2024 12:54</t>
-  </si>
-  <si>
-    <t>Liliana Perlaza</t>
-  </si>
-  <si>
-    <t>Definición y secado risos corto ( Ceremonia Express-Definición y Difusor)</t>
-  </si>
-  <si>
-    <t>14/12/2024 12:19</t>
-  </si>
-  <si>
-    <t>Nancy Gamba</t>
-  </si>
-  <si>
-    <t>14/12/2024 10:59</t>
-  </si>
-  <si>
-    <t>Natalia Montenegro</t>
-  </si>
-  <si>
-    <t>Express capilar cabello largo</t>
-  </si>
-  <si>
-    <t>14/12/2024 10:45</t>
-  </si>
-  <si>
-    <t>Consuelo Acevedo</t>
-  </si>
-  <si>
-    <t>Scalp-Ego Shampoo calming 300ml</t>
-  </si>
-  <si>
-    <t>Detox Capilar( Desintoxicacion de fibra capilar)</t>
-  </si>
-  <si>
-    <t>13/12/2024 17:22</t>
-  </si>
-  <si>
-    <t>Vilma Lizaraso</t>
-  </si>
-  <si>
-    <t>13/12/2024 13:24</t>
-  </si>
-  <si>
-    <t>eva aranguren</t>
-  </si>
-  <si>
-    <t>Express capilar cabello extra largo</t>
-  </si>
-  <si>
-    <t>13/12/2024 12:27</t>
-  </si>
-  <si>
-    <t>Amparo Gonzalez</t>
-  </si>
-  <si>
-    <t>13/12/2024 12:16</t>
-  </si>
-  <si>
-    <t>Leonor joha</t>
-  </si>
-  <si>
-    <t>Ceremonia capilar cabello largo</t>
-  </si>
-  <si>
-    <t>13/12/2024 10:30</t>
-  </si>
-  <si>
-    <t>Alexandra Rodriguez</t>
-  </si>
-  <si>
-    <t>Reposición de aminoacidos cabello largo   - (No Incluye Blower y Plancha)</t>
-  </si>
-  <si>
-    <t>13/12/2024 10:25</t>
-  </si>
-  <si>
-    <t>Patricia Mattos</t>
-  </si>
-  <si>
-    <t>Propina desde</t>
-  </si>
-  <si>
-    <t>12/12/2024 18:32</t>
-  </si>
-  <si>
-    <t>Claudia Fernanda Botero</t>
-  </si>
-  <si>
-    <t>Express capilar cabello medio</t>
-  </si>
-  <si>
-    <t>12/12/2024 17:52</t>
-  </si>
-  <si>
-    <t>Danys Rodriguez</t>
-  </si>
-  <si>
-    <t>12/12/2024 16:03</t>
-  </si>
-  <si>
-    <t>Olga Delgadillo</t>
-  </si>
-  <si>
-    <t>Spa Manicure Tradicional</t>
-  </si>
-  <si>
-    <t>12/12/2024 16:02</t>
-  </si>
-  <si>
-    <t>Shirley Comfar *Francy</t>
-  </si>
-  <si>
-    <t>12/12/2024 14:47</t>
-  </si>
-  <si>
-    <t>Clara Prieto</t>
-  </si>
-  <si>
-    <t>Manicure  Tradicional Express</t>
-  </si>
-  <si>
-    <t>12/12/2024 10:52</t>
-  </si>
-  <si>
-    <t>Katerine Medellin</t>
-  </si>
-  <si>
-    <t>11/12/2024 18:00</t>
-  </si>
-  <si>
-    <t>María Daniela Moreno</t>
-  </si>
-  <si>
-    <t>11/12/2024 14:48</t>
-  </si>
-  <si>
-    <t>Alejandra Quintana</t>
-  </si>
-  <si>
-    <t>11/12/2024 10:26</t>
-  </si>
-  <si>
-    <t>Adriana Buitrago</t>
-  </si>
-  <si>
-    <t>10/12/2024 19:20</t>
-  </si>
-  <si>
-    <t>Alisson Mariana Villa Soto</t>
-  </si>
-  <si>
-    <t>10/12/2024 18:24</t>
-  </si>
-  <si>
-    <t>Sara Rincón</t>
-  </si>
-  <si>
-    <t>10/12/2024 16:00</t>
-  </si>
-  <si>
-    <t>Ana Victoria Vega</t>
-  </si>
-  <si>
-    <t>10/12/2024 15:29</t>
-  </si>
-  <si>
-    <t>10/12/2024 15:22</t>
-  </si>
-  <si>
-    <t>10/12/2024 14:39</t>
-  </si>
-  <si>
-    <t>10/12/2024 11:40</t>
-  </si>
-  <si>
-    <t>Stella Sierra</t>
-  </si>
-  <si>
-    <t>Cure-Ego Silk oil conditioner 300ml</t>
-  </si>
-  <si>
-    <t>10/12/2024 10:50</t>
-  </si>
-  <si>
-    <t>Sandra Giraldo</t>
-  </si>
-  <si>
-    <t>09/12/2024 12:25</t>
-  </si>
-  <si>
-    <t>07/12/2024 18:23</t>
-  </si>
-  <si>
-    <t>Brigette Bing</t>
-  </si>
-  <si>
-    <t>07/12/2024 17:57</t>
-  </si>
-  <si>
-    <t>Ana Maria Moreno</t>
-  </si>
-  <si>
-    <t>07/12/2024 16:46</t>
-  </si>
-  <si>
-    <t>Juan Fernando Lopez</t>
-  </si>
-  <si>
-    <t>07/12/2024 13:03</t>
-  </si>
-  <si>
-    <t>Marjorie Forte</t>
-  </si>
-  <si>
-    <t>07/12/2024 12:35</t>
-  </si>
-  <si>
-    <t>Yeseline Diaz</t>
-  </si>
-  <si>
-    <t>07/12/2024 10:40</t>
-  </si>
-  <si>
-    <t>Michelle Pérez</t>
-  </si>
-  <si>
-    <t>Spa Manicure Gel Evolution</t>
-  </si>
-  <si>
-    <t>07/12/2024 07:34</t>
-  </si>
-  <si>
-    <t>Cambio de Esmalte Gel Evolution</t>
-  </si>
-  <si>
-    <t>06/12/2024 18:13</t>
-  </si>
-  <si>
-    <t>Ximena Peñuela</t>
-  </si>
-  <si>
-    <t>06/12/2024 12:01</t>
-  </si>
-  <si>
-    <t>Luz Helena Clavijo</t>
-  </si>
-  <si>
-    <t>Servicio de Plancha (desde)</t>
-  </si>
-  <si>
-    <t>Blower  Cabello medio</t>
-  </si>
-  <si>
-    <t>06/12/2024 11:55</t>
-  </si>
-  <si>
-    <t>Hilda Abreo</t>
-  </si>
-  <si>
-    <t>05/12/2024 17:35</t>
-  </si>
-  <si>
-    <t>Gabriela Feijoo</t>
-  </si>
-  <si>
-    <t>05/12/2024 14:26</t>
-  </si>
-  <si>
-    <t>Carlos Pedraza</t>
-  </si>
-  <si>
-    <t>05/12/2024 09:46</t>
-  </si>
-  <si>
-    <t>04/12/2024 18:53</t>
-  </si>
-  <si>
-    <t>Monica Lombana</t>
-  </si>
-  <si>
-    <t>04/12/2024 16:47</t>
-  </si>
-  <si>
-    <t>Paola Castro</t>
-  </si>
-  <si>
-    <t>03/12/2024 17:20</t>
-  </si>
-  <si>
-    <t>03/12/2024 14:26</t>
-  </si>
-  <si>
-    <t>Priscila Hernandez</t>
-  </si>
-  <si>
-    <t>03/12/2024 11:37</t>
-  </si>
-  <si>
-    <t>03/12/2024 08:59</t>
-  </si>
-  <si>
-    <t>Clara Aya</t>
-  </si>
-  <si>
-    <t>02/12/2024 18:17</t>
-  </si>
-  <si>
-    <t>Valentina Muñuz joha</t>
-  </si>
-  <si>
-    <t>Masaje capilar</t>
-  </si>
-  <si>
-    <t>02/12/2024 17:58</t>
-  </si>
-  <si>
-    <t>Luz Stella Gil</t>
-  </si>
-  <si>
-    <t>15/12/2024</t>
-  </si>
-  <si>
-    <t>Fondo - Ahorro</t>
-  </si>
-  <si>
-    <t>17/12/2024</t>
-  </si>
-  <si>
-    <t>Descuento - Anticipo</t>
-  </si>
-  <si>
-    <t>16/12/2024</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+  <si>
+    <t xml:space="preserve">Identificador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de Pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio/Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prestador/Vendedor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">val_prod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part_profesional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024 17:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adriana junca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shampoo Dirigido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marinela Olaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024 15:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Paez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masaje Relajante Espalda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024 11:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Carolina Garcia Rueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024 11:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juana Orduz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shampoo Tradicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 17:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandra Reyeros Ivonne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Pedicure Tradicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 15:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajuste de Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Manicure Semipermanente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 14:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diego Sanchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalp-Ego energizing Shampoo 300 ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalp-Ego Energizing Lotion 10 ml - Ampolleta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 14:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvia Juliana Sanchez Gamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceremonia capilar cabello extra largo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 13:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola Osorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceremonia capilar cabello medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 12:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Perlaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definición y secado risos corto ( Ceremonia Express-Definición y Difusor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 12:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy Gamba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 10:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalia Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Express capilar cabello largo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/12/2024 10:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consuelo Acevedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scalp-Ego Shampoo calming 300ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detox Capilar( Desintoxicacion de fibra capilar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 17:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vilma Lizaraso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 13:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eva aranguren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Express capilar cabello extra largo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 12:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amparo Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 12:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonor joha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ceremonia capilar cabello largo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 10:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandra Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reposición de aminoacidos cabello largo   - (No Incluye Blower y Plancha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/12/2024 10:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia Mattos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propina desde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024 18:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Fernanda Botero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Express capilar cabello medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024 17:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Danys Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024 16:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga Delgadillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Manicure Tradicional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024 16:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shirley Comfar *Francy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024 14:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Prieto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manicure  Tradicional Express</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12/12/2024 10:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katerine Medellin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2024 18:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Daniela Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2024 14:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandra Quintana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11/12/2024 10:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Buitrago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 19:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alisson Mariana Villa Soto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 18:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sara Rincón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 16:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Victoria Vega</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 15:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 15:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 14:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 11:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stella Sierra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cure-Ego Silk oil conditioner 300ml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10/12/2024 10:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Giraldo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09/12/2024 12:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 18:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brigette Bing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 17:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Maria Moreno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 16:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Fernando Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 13:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marjorie Forte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 12:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yeseline Diaz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 10:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michelle Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spa Manicure Gel Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/12/2024 07:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio de Esmalte Gel Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/12/2024 18:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ximena Peñuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/12/2024 12:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Helena Clavijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicio de Plancha (desde)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blower  Cabello medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/12/2024 11:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilda Abreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/2024 17:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriela Feijoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/2024 14:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Pedraza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05/12/2024 09:46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024 18:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monica Lombana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/12/2024 16:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola Castro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2024 17:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2024 14:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priscila Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2024 11:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03/12/2024 08:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clara Aya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2024 18:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina Muñuz joha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masaje capilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02/12/2024 17:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Stella Gil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fondo - Ahorro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17/12/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento - Anticipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16/12/2024</t>
   </si>
 </sst>
 </file>
@@ -482,9 +463,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0;[Red]&quot;$&quot;\ \-#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot; #,##0;[Red]&quot;$&quot; -#,##0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -493,17 +474,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <b/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -531,29 +510,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -835,26 +804,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="75.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="28.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="75.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="16.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,8 +847,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>35992490</v>
       </c>
       <c r="B2" t="s">
@@ -896,18 +863,18 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>22000</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" t="n">
         <v>35992490</v>
       </c>
       <c r="B3" t="s">
@@ -922,18 +889,18 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>22000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" t="n">
         <v>35990728</v>
       </c>
       <c r="B4" t="s">
@@ -948,18 +915,18 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>75000</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>30000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" t="n">
         <v>35985592</v>
       </c>
       <c r="B5" t="s">
@@ -974,18 +941,18 @@
       <c r="E5" t="s">
         <v>11</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>22000</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" t="n">
         <v>35986161</v>
       </c>
       <c r="B6" t="s">
@@ -1000,18 +967,18 @@
       <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>15000</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>35980747</v>
       </c>
       <c r="B7" t="s">
@@ -1026,18 +993,18 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>34000</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>15300</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="8">
+      <c r="A8" s="4" t="n">
         <v>35969263</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1052,18 +1019,18 @@
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="4" t="n">
         <v>60000</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="n">
         <v>-15600</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>35967101</v>
       </c>
       <c r="B9" t="s">
@@ -1078,18 +1045,18 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>122000</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>9760</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>35967101</v>
       </c>
       <c r="B10" t="s">
@@ -1104,18 +1071,18 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>136000</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>10880</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>35968621</v>
       </c>
       <c r="B11" t="s">
@@ -1130,18 +1097,18 @@
       <c r="E11" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>115000</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>46000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>35956666</v>
       </c>
       <c r="B12" t="s">
@@ -1156,18 +1123,18 @@
       <c r="E12" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>95000</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>35956259</v>
       </c>
       <c r="B13" t="s">
@@ -1182,18 +1149,18 @@
       <c r="E13" t="s">
         <v>11</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>90000</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>36000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>35973557</v>
       </c>
       <c r="B14" t="s">
@@ -1208,18 +1175,18 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>115000</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>46000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>35946472</v>
       </c>
       <c r="B15" t="s">
@@ -1234,18 +1201,18 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>55000</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>22000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>35945432</v>
       </c>
       <c r="B16" t="s">
@@ -1260,18 +1227,18 @@
       <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>122000</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>9760</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" t="n">
         <v>35945432</v>
       </c>
       <c r="B17" t="s">
@@ -1286,18 +1253,18 @@
       <c r="E17" t="s">
         <v>11</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>45000</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" t="n">
         <v>35935166</v>
       </c>
       <c r="B18" t="s">
@@ -1312,18 +1279,18 @@
       <c r="E18" t="s">
         <v>11</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>55000</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>22000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" t="n">
         <v>35908072</v>
       </c>
       <c r="B19" t="s">
@@ -1338,18 +1305,18 @@
       <c r="E19" t="s">
         <v>11</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>60000</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2" t="n">
         <v>24000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" t="n">
         <v>35899642</v>
       </c>
       <c r="B20" t="s">
@@ -1364,18 +1331,18 @@
       <c r="E20" t="s">
         <v>11</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>45000</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" t="n">
         <v>35899642</v>
       </c>
       <c r="B21" t="s">
@@ -1390,18 +1357,18 @@
       <c r="E21" t="s">
         <v>11</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>95000</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" t="n">
         <v>35900770</v>
       </c>
       <c r="B22" t="s">
@@ -1416,18 +1383,18 @@
       <c r="E22" t="s">
         <v>11</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>105000</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2" t="n">
         <v>42000</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>35896985</v>
       </c>
       <c r="B23" t="s">
@@ -1442,18 +1409,18 @@
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>196500</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n">
         <v>78600</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>35890627</v>
       </c>
       <c r="B24" t="s">
@@ -1468,18 +1435,18 @@
       <c r="E24" t="s">
         <v>11</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>22000</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>35890627</v>
       </c>
       <c r="B25" t="s">
@@ -1494,18 +1461,18 @@
       <c r="E25" t="s">
         <v>11</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>5800</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2" t="n">
         <v>5591.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>35877760</v>
       </c>
       <c r="B26" t="s">
@@ -1520,18 +1487,18 @@
       <c r="E26" t="s">
         <v>11</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>50000</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>35875163</v>
       </c>
       <c r="B27" t="s">
@@ -1546,18 +1513,18 @@
       <c r="E27" t="s">
         <v>11</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>50000</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>35867971</v>
       </c>
       <c r="B28" t="s">
@@ -1572,18 +1539,18 @@
       <c r="E28" t="s">
         <v>11</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>2000</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2" t="n">
         <v>1928</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>35867971</v>
       </c>
       <c r="B29" t="s">
@@ -1598,18 +1565,18 @@
       <c r="E29" t="s">
         <v>11</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>28000</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2" t="n">
         <v>12600</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>35871132</v>
       </c>
       <c r="B30" t="s">
@@ -1624,18 +1591,18 @@
       <c r="E30" t="s">
         <v>11</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>22000</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>35857822</v>
       </c>
       <c r="B31" t="s">
@@ -1650,18 +1617,18 @@
       <c r="E31" t="s">
         <v>11</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>20000</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>35845550</v>
       </c>
       <c r="B32" t="s">
@@ -1676,18 +1643,18 @@
       <c r="E32" t="s">
         <v>11</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>15000</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>35826717</v>
       </c>
       <c r="B33" t="s">
@@ -1702,18 +1669,18 @@
       <c r="E33" t="s">
         <v>11</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>22000</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>35820951</v>
       </c>
       <c r="B34" t="s">
@@ -1728,18 +1695,18 @@
       <c r="E34" t="s">
         <v>11</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>45000</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" s="2">
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>35820951</v>
       </c>
       <c r="B35" t="s">
@@ -1754,18 +1721,18 @@
       <c r="E35" t="s">
         <v>11</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>105000</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" s="2">
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2" t="n">
         <v>42000</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>35795675</v>
       </c>
       <c r="B36" t="s">
@@ -1780,18 +1747,18 @@
       <c r="E36" t="s">
         <v>11</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>22000</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>35783756</v>
       </c>
       <c r="B37" t="s">
@@ -1806,18 +1773,18 @@
       <c r="E37" t="s">
         <v>11</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
         <v>35780749</v>
       </c>
       <c r="B38" t="s">
@@ -1832,18 +1799,18 @@
       <c r="E38" t="s">
         <v>11</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>115000</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="n">
         <v>46000</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>35780749</v>
       </c>
       <c r="B39" t="s">
@@ -1858,18 +1825,18 @@
       <c r="E39" t="s">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>45000</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>35779840</v>
       </c>
       <c r="B40" t="s">
@@ -1884,18 +1851,18 @@
       <c r="E40" t="s">
         <v>11</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>60000</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2" t="n">
         <v>24000</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>35769960</v>
       </c>
       <c r="B41" t="s">
@@ -1910,18 +1877,18 @@
       <c r="E41" t="s">
         <v>11</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>22000</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>35767734</v>
       </c>
       <c r="B42" t="s">
@@ -1936,18 +1903,18 @@
       <c r="E42" t="s">
         <v>11</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>34000</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2" t="n">
         <v>2720</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>35767734</v>
       </c>
       <c r="B43" t="s">
@@ -1962,18 +1929,18 @@
       <c r="E43" t="s">
         <v>11</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>22000</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>35764646</v>
       </c>
       <c r="B44" t="s">
@@ -1988,18 +1955,18 @@
       <c r="E44" t="s">
         <v>11</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>5000</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" s="2" t="n">
         <v>5000</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>35764646</v>
       </c>
       <c r="B45" t="s">
@@ -2014,18 +1981,18 @@
       <c r="E45" t="s">
         <v>11</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>22000</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>35753709</v>
       </c>
       <c r="B46" t="s">
@@ -2040,18 +2007,18 @@
       <c r="E46" t="s">
         <v>11</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>142000</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2" t="n">
         <v>11360</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>35753709</v>
       </c>
       <c r="B47" t="s">
@@ -2066,18 +2033,18 @@
       <c r="E47" t="s">
         <v>11</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>55000</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2" t="n">
         <v>22000</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>35751106</v>
       </c>
       <c r="B48" t="s">
@@ -2092,18 +2059,18 @@
       <c r="E48" t="s">
         <v>11</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>15000</v>
       </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48" s="2">
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" t="n">
         <v>35713299</v>
       </c>
       <c r="B49" t="s">
@@ -2118,18 +2085,18 @@
       <c r="E49" t="s">
         <v>11</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>20000</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" s="2">
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" s="2" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" t="n">
         <v>35689160</v>
       </c>
       <c r="B50" t="s">
@@ -2144,18 +2111,18 @@
       <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>22000</v>
       </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" t="n">
         <v>35688015</v>
       </c>
       <c r="B51" t="s">
@@ -2170,18 +2137,18 @@
       <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>142000</v>
       </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="n">
         <v>11360</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" t="n">
         <v>35688015</v>
       </c>
       <c r="B52" t="s">
@@ -2196,18 +2163,18 @@
       <c r="E52" t="s">
         <v>11</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>122000</v>
       </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="n">
         <v>9760</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" t="n">
         <v>35688119</v>
       </c>
       <c r="B53" t="s">
@@ -2222,18 +2189,18 @@
       <c r="E53" t="s">
         <v>11</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>45000</v>
       </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" t="n">
         <v>35688119</v>
       </c>
       <c r="B54" t="s">
@@ -2248,18 +2215,18 @@
       <c r="E54" t="s">
         <v>11</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>115000</v>
       </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="n">
         <v>46000</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" t="n">
         <v>35673641</v>
       </c>
       <c r="B55" t="s">
@@ -2274,18 +2241,18 @@
       <c r="E55" t="s">
         <v>11</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>60000</v>
       </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="n">
         <v>24000</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" t="n">
         <v>35666637</v>
       </c>
       <c r="B56" t="s">
@@ -2300,18 +2267,18 @@
       <c r="E56" t="s">
         <v>11</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>22000</v>
       </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" t="n">
         <v>35656476</v>
       </c>
       <c r="B57" t="s">
@@ -2326,18 +2293,18 @@
       <c r="E57" t="s">
         <v>11</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>32000</v>
       </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2" t="n">
         <v>14400</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" t="n">
         <v>35652036</v>
       </c>
       <c r="B58" t="s">
@@ -2352,18 +2319,18 @@
       <c r="E58" t="s">
         <v>11</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>18000</v>
       </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="n">
         <v>8100</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" t="n">
         <v>35652036</v>
       </c>
       <c r="B59" t="s">
@@ -2378,18 +2345,18 @@
       <c r="E59" t="s">
         <v>11</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>22000</v>
       </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" t="n">
         <v>35652036</v>
       </c>
       <c r="B60" t="s">
@@ -2404,18 +2371,18 @@
       <c r="E60" t="s">
         <v>11</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>22000</v>
       </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" s="2">
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" t="n">
         <v>35642190</v>
       </c>
       <c r="B61" t="s">
@@ -2430,18 +2397,18 @@
       <c r="E61" t="s">
         <v>11</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
         <v>35642190</v>
       </c>
       <c r="B62" t="s">
@@ -2456,18 +2423,18 @@
       <c r="E62" t="s">
         <v>11</v>
       </c>
-      <c r="F62">
+      <c r="F62" t="n">
         <v>45000</v>
       </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62" s="2">
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" t="n">
         <v>35608137</v>
       </c>
       <c r="B63" t="s">
@@ -2482,18 +2449,18 @@
       <c r="E63" t="s">
         <v>11</v>
       </c>
-      <c r="F63">
+      <c r="F63" t="n">
         <v>20000</v>
       </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63" s="2">
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="n">
         <v>11000</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" t="n">
         <v>35608137</v>
       </c>
       <c r="B64" t="s">
@@ -2508,18 +2475,18 @@
       <c r="E64" t="s">
         <v>11</v>
       </c>
-      <c r="F64">
+      <c r="F64" t="n">
         <v>35000</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64" s="2">
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2" t="n">
         <v>19250</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" t="n">
         <v>35608137</v>
       </c>
       <c r="B65" t="s">
@@ -2534,18 +2501,18 @@
       <c r="E65" t="s">
         <v>11</v>
       </c>
-      <c r="F65">
+      <c r="F65" t="n">
         <v>22000</v>
       </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="2">
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66">
+      <c r="A66" t="n">
         <v>35606922</v>
       </c>
       <c r="B66" t="s">
@@ -2560,18 +2527,18 @@
       <c r="E66" t="s">
         <v>11</v>
       </c>
-      <c r="F66">
+      <c r="F66" t="n">
         <v>22000</v>
       </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2">
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67">
+      <c r="A67" t="n">
         <v>35586204</v>
       </c>
       <c r="B67" t="s">
@@ -2586,18 +2553,18 @@
       <c r="E67" t="s">
         <v>11</v>
       </c>
-      <c r="F67">
+      <c r="F67" t="n">
         <v>115000</v>
       </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67" s="2">
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" s="2" t="n">
         <v>46000</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68">
+      <c r="A68" t="n">
         <v>35586204</v>
       </c>
       <c r="B68" t="s">
@@ -2612,18 +2579,18 @@
       <c r="E68" t="s">
         <v>11</v>
       </c>
-      <c r="F68">
+      <c r="F68" t="n">
         <v>45000</v>
       </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68" s="2">
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69">
+      <c r="A69" t="n">
         <v>35568200</v>
       </c>
       <c r="B69" t="s">
@@ -2638,18 +2605,18 @@
       <c r="E69" t="s">
         <v>11</v>
       </c>
-      <c r="F69">
+      <c r="F69" t="n">
         <v>45000</v>
       </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69" s="2">
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" s="2" t="n">
         <v>18000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70">
+      <c r="A70" t="n">
         <v>35568200</v>
       </c>
       <c r="B70" t="s">
@@ -2664,18 +2631,18 @@
       <c r="E70" t="s">
         <v>11</v>
       </c>
-      <c r="F70">
+      <c r="F70" t="n">
         <v>22000</v>
       </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70" s="2">
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71">
+      <c r="A71" t="n">
         <v>35553623</v>
       </c>
       <c r="B71" t="s">
@@ -2690,18 +2657,18 @@
       <c r="E71" t="s">
         <v>11</v>
       </c>
-      <c r="F71">
+      <c r="F71" t="n">
         <v>28000</v>
       </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71" s="2">
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" s="2" t="n">
         <v>12600</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72">
+      <c r="A72" t="n">
         <v>35538876</v>
       </c>
       <c r="B72" t="s">
@@ -2716,18 +2683,18 @@
       <c r="E72" t="s">
         <v>11</v>
       </c>
-      <c r="F72">
+      <c r="F72" t="n">
         <v>20000</v>
       </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72" s="2">
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" s="2" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73">
+      <c r="A73" t="n">
         <v>35530195</v>
       </c>
       <c r="B73" t="s">
@@ -2742,18 +2709,18 @@
       <c r="E73" t="s">
         <v>11</v>
       </c>
-      <c r="F73">
+      <c r="F73" t="n">
         <v>15000</v>
       </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2">
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" s="2" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74">
+      <c r="A74" t="n">
         <v>35493217</v>
       </c>
       <c r="B74" t="s">
@@ -2768,18 +2735,18 @@
       <c r="E74" t="s">
         <v>11</v>
       </c>
-      <c r="F74">
+      <c r="F74" t="n">
         <v>22000</v>
       </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2">
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75">
+      <c r="A75" t="n">
         <v>35475047</v>
       </c>
       <c r="B75" t="s">
@@ -2794,18 +2761,18 @@
       <c r="E75" t="s">
         <v>11</v>
       </c>
-      <c r="F75">
+      <c r="F75" t="n">
         <v>22000</v>
       </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2">
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76">
+      <c r="A76" t="n">
         <v>35464742</v>
       </c>
       <c r="B76" t="s">
@@ -2820,18 +2787,18 @@
       <c r="E76" t="s">
         <v>11</v>
       </c>
-      <c r="F76">
+      <c r="F76" t="n">
         <v>15000</v>
       </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2">
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" s="2" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77">
+      <c r="A77" t="n">
         <v>35457536</v>
       </c>
       <c r="B77" t="s">
@@ -2846,18 +2813,18 @@
       <c r="E77" t="s">
         <v>11</v>
       </c>
-      <c r="F77">
+      <c r="F77" t="n">
         <v>22000</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2">
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" s="2" t="n">
         <v>8800</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78">
+      <c r="A78" t="n">
         <v>35451892</v>
       </c>
       <c r="B78" t="s">
@@ -2872,18 +2839,18 @@
       <c r="E78" t="s">
         <v>11</v>
       </c>
-      <c r="F78">
+      <c r="F78" t="n">
         <v>25000</v>
       </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2">
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79">
+      <c r="A79" t="n">
         <v>35445806</v>
       </c>
       <c r="B79" t="s">
@@ -2898,18 +2865,18 @@
       <c r="E79" t="s">
         <v>11</v>
       </c>
-      <c r="F79">
+      <c r="F79" t="n">
         <v>34000</v>
       </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2">
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" s="2" t="n">
         <v>2720</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80">
+      <c r="A80" t="n">
         <v>35445806</v>
       </c>
       <c r="B80" t="s">
@@ -2924,17 +2891,17 @@
       <c r="E80" t="s">
         <v>11</v>
       </c>
-      <c r="F80">
+      <c r="F80" t="n">
         <v>15000</v>
       </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80" s="2">
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" s="2" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="4"/>
       <c r="B81" s="4" t="s">
         <v>143</v>
@@ -2946,17 +2913,17 @@
       <c r="E81" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="4">
-        <v>0</v>
-      </c>
-      <c r="G81" s="4">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="F81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3" t="n">
         <v>-50000</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="4"/>
       <c r="B82" s="4" t="s">
         <v>145</v>
@@ -2968,17 +2935,17 @@
       <c r="E82" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="4">
-        <v>0</v>
-      </c>
-      <c r="G82" s="4">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="F82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" s="3" t="n">
         <v>-50000</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="4"/>
       <c r="B83" s="4" t="s">
         <v>147</v>
@@ -2990,21 +2957,18 @@
       <c r="E83" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="4">
-        <v>0</v>
-      </c>
-      <c r="G83" s="4">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="F83" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="n">
         <v>-50000</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H84" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>